--- a/pembukuan.xlsx
+++ b/pembukuan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Pengajian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A188055D-76B6-4ECA-833E-4D9AD616F23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F26F5B-130D-494A-8FE1-EB255CEE1CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="47">
   <si>
     <t>Tanggal</t>
   </si>
@@ -152,27 +152,6 @@
   </si>
   <si>
     <t>Konsumsi pengajian</t>
-  </si>
-  <si>
-    <t>Potong rambut</t>
-  </si>
-  <si>
-    <t>Tukang</t>
-  </si>
-  <si>
-    <t>Roti gembung</t>
-  </si>
-  <si>
-    <t>Lynk</t>
-  </si>
-  <si>
-    <t>Uang seharusnya</t>
-  </si>
-  <si>
-    <t>Uang yang di dompet</t>
-  </si>
-  <si>
-    <t>Kurangnya</t>
   </si>
   <si>
     <t>Sate</t>
@@ -242,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,12 +231,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -305,11 +278,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -374,8 +348,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2E55DFE-0EC8-4811-BF5F-68CC494C65C1}" name="Table1_34" displayName="Table1_34" ref="A1:E32" totalsRowShown="0">
-  <autoFilter ref="A1:E32" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2E55DFE-0EC8-4811-BF5F-68CC494C65C1}" name="Table1_34" displayName="Table1_34" ref="A1:E36" totalsRowShown="0">
+  <autoFilter ref="A1:E36" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8BE68CBF-4C7B-493C-9D2A-190B153DA5AF}" name="Tanggal"/>
     <tableColumn id="2" xr3:uid="{799BA718-157D-4F5F-B22F-0E0734CF2734}" name="Uraian"/>
@@ -2101,8 +2075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA56647C-AEFE-49CE-B54E-C02C082EF681}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2111,7 +2085,7 @@
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -2222,13 +2196,13 @@
         <f>E6+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>16800</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="11">
         <v>1000</v>
       </c>
       <c r="M7">
         <v>4</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="12">
         <f t="shared" ref="N7:N16" si="0">L7*M7</f>
         <v>4000</v>
       </c>
@@ -2248,13 +2222,13 @@
         <f>E7+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>466800</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="11">
         <v>2000</v>
       </c>
       <c r="M8">
         <v>10</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="12">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
@@ -2275,13 +2249,13 @@
         <v>379800</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="L9" s="13">
+      <c r="L9" s="11">
         <v>5000</v>
       </c>
       <c r="M9">
         <v>3</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="12">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
@@ -2300,13 +2274,13 @@
         <v>416800</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="L10" s="13">
+      <c r="L10" s="11">
         <v>10000</v>
       </c>
       <c r="M10">
         <v>3</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="12">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
@@ -2327,13 +2301,13 @@
         <v>248800</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="L11" s="13">
+      <c r="L11" s="11">
         <v>50000</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="12">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
@@ -2351,13 +2325,13 @@
         <f>E11+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>272800</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="11">
         <v>100000</v>
       </c>
       <c r="M12">
         <v>2</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="12">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
@@ -2377,13 +2351,13 @@
         <f>E12+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>142800</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="11">
         <v>100</v>
       </c>
       <c r="M13">
         <v>7</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="12">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
@@ -2403,13 +2377,13 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="L14" s="13">
+      <c r="L14" s="11">
         <v>200</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="12">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
@@ -2428,13 +2402,13 @@
         <v>408800</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="L15" s="13">
+      <c r="L15" s="11">
         <v>500</v>
       </c>
       <c r="M15">
         <v>1</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="12">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
@@ -2453,13 +2427,13 @@
         <v>487800</v>
       </c>
       <c r="H16" s="3"/>
-      <c r="L16" s="13">
+      <c r="L16" s="11">
         <v>1000</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="12">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
@@ -2480,14 +2454,11 @@
         <v>311800</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="J17" s="10">
-        <v>333800</v>
-      </c>
-      <c r="K17" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" s="14">
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="14"/>
+      <c r="N17" s="12">
         <f>SUM(N7:N16)</f>
         <v>321400</v>
       </c>
@@ -2505,13 +2476,10 @@
         <v>351800</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="J18" s="10">
-        <v>8400</v>
-      </c>
-      <c r="K18" t="s">
-        <v>48</v>
-      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
@@ -2529,17 +2497,11 @@
         <v>501800</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J19" s="11">
-        <f>J17-J18</f>
-        <v>325400</v>
-      </c>
-      <c r="K19" t="s">
-        <v>49</v>
-      </c>
-      <c r="N19" s="3">
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14"/>
+      <c r="N19" s="9">
         <f>N17-E32</f>
         <v>-25400</v>
       </c>
@@ -2557,14 +2519,18 @@
         <f>E19+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>401800</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3">
-        <v>100000</v>
-      </c>
-      <c r="J20" s="9">
-        <f>J19-K31</f>
-        <v>95400</v>
-      </c>
+      <c r="G20" s="11">
+        <v>2300</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="12">
+        <f>G20*H20</f>
+        <v>2300</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1"/>
@@ -2580,14 +2546,18 @@
         <f>E20+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>444800</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3">
-        <v>30000</v>
-      </c>
-      <c r="J21" s="3">
-        <f>J20+K32</f>
-        <v>48000</v>
-      </c>
+      <c r="G21" s="11">
+        <v>1000</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" ref="I21:I27" si="1">G21*H21</f>
+        <v>4000</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
@@ -2604,10 +2574,18 @@
         <f>E21+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>463800</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3">
-        <v>30000</v>
-      </c>
+      <c r="G22" s="11">
+        <v>2000</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
@@ -2624,10 +2602,18 @@
         <f>E22+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>333800</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3">
-        <v>700</v>
-      </c>
+      <c r="G23" s="11">
+        <v>5000</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1"/>
@@ -2642,17 +2628,25 @@
         <f>E23+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>387800</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3">
-        <v>700</v>
-      </c>
+      <c r="G24" s="11">
+        <v>10000</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>45940</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
@@ -2662,15 +2656,23 @@
         <f>E24+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>237800</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3">
-        <v>1000</v>
-      </c>
+      <c r="G25" s="11">
+        <v>20000</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="12">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1"/>
-      <c r="B26" s="12" t="s">
-        <v>51</v>
+      <c r="B26" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3">
@@ -2680,11 +2682,22 @@
         <f>E25+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>216800</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="G26" s="11">
+        <v>50000</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="12">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1"/>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="3">
@@ -2695,16 +2708,18 @@
         <f>E26+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>253800</v>
       </c>
-      <c r="H27" s="3">
-        <f>SUM(H19:H26)</f>
-        <v>167400</v>
-      </c>
-      <c r="J27" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27" s="3">
-        <v>50000</v>
-      </c>
+      <c r="G27" s="11">
+        <v>100000</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" s="12">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
@@ -2721,21 +2736,18 @@
         <f>E27+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>553800</v>
       </c>
-      <c r="H28" s="3">
-        <f>H27-E21</f>
-        <v>-277400</v>
-      </c>
-      <c r="J28" t="s">
-        <v>44</v>
-      </c>
-      <c r="K28" s="3">
-        <v>50000</v>
-      </c>
+      <c r="G28" s="14"/>
+      <c r="I28" s="12">
+        <f>SUM(I20:I27)</f>
+        <v>356300</v>
+      </c>
+      <c r="J28" s="14"/>
+      <c r="K28" s="13"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1"/>
-      <c r="B29" s="12" t="s">
-        <v>52</v>
+      <c r="B29" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
@@ -2745,17 +2757,15 @@
         <f>E28+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>383800</v>
       </c>
-      <c r="J29" t="s">
-        <v>45</v>
-      </c>
-      <c r="K29" s="3">
-        <v>30000</v>
-      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="13"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1"/>
-      <c r="B30" s="12" t="s">
-        <v>53</v>
+      <c r="B30" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3">
@@ -2765,17 +2775,18 @@
         <f>E29+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>353800</v>
       </c>
-      <c r="J30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K30" s="3">
-        <v>100000</v>
-      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="9">
+        <f>I28-E36</f>
+        <v>-25500</v>
+      </c>
+      <c r="J30" s="14"/>
+      <c r="K30" s="13"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1"/>
-      <c r="B31" s="12" t="s">
-        <v>51</v>
+      <c r="B31" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
@@ -2785,14 +2796,14 @@
         <f>E30+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>331800</v>
       </c>
-      <c r="K31" s="11">
-        <f>SUM(K27:K30)</f>
-        <v>230000</v>
-      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="13"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1"/>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="3">
@@ -2803,84 +2814,122 @@
         <f>E31+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>346800</v>
       </c>
-      <c r="K32" s="9">
-        <f>K31+H28</f>
-        <v>-47400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1"/>
-      <c r="C33" s="3"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>45975</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="3">
+        <v>200000</v>
+      </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="E33" s="3">
+        <f>E32+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
+        <v>546800</v>
+      </c>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1"/>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="D34" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E34" s="3">
+        <f>E33+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
+        <v>386800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1"/>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="D35" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E35" s="3">
+        <f>E34+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
+        <v>356800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1"/>
-      <c r="C36" s="3"/>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="3">
+        <v>25000</v>
+      </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="E36" s="3">
+        <f>E35+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
+        <v>381800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:11">
       <c r="A38" s="1"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:11">
       <c r="A39" s="1"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:11">
       <c r="A40" s="1"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:11">
       <c r="A41" s="1"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:11">
       <c r="A42" s="1"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:11">
       <c r="A43" s="1"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:11">
       <c r="A44" s="1"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:11">
       <c r="A45" s="1"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>

--- a/pembukuan.xlsx
+++ b/pembukuan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Pengajian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F26F5B-130D-494A-8FE1-EB255CEE1CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA515592-EBB3-454C-88F6-EAF5D27D3F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="47">
   <si>
     <t>Tanggal</t>
   </si>
@@ -267,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -281,9 +281,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -348,8 +346,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2E55DFE-0EC8-4811-BF5F-68CC494C65C1}" name="Table1_34" displayName="Table1_34" ref="A1:E36" totalsRowShown="0">
-  <autoFilter ref="A1:E36" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2E55DFE-0EC8-4811-BF5F-68CC494C65C1}" name="Table1_34" displayName="Table1_34" ref="A1:E40" totalsRowShown="0">
+  <autoFilter ref="A1:E40" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8BE68CBF-4C7B-493C-9D2A-190B153DA5AF}" name="Tanggal"/>
     <tableColumn id="2" xr3:uid="{799BA718-157D-4F5F-B22F-0E0734CF2734}" name="Uraian"/>
@@ -2075,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA56647C-AEFE-49CE-B54E-C02C082EF681}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A40" sqref="A13:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2088,8 +2086,7 @@
     <col min="7" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2454,10 +2451,8 @@
         <v>311800</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="14"/>
+      <c r="H17" s="3"/>
+      <c r="J17" s="13"/>
       <c r="N17" s="12">
         <f>SUM(N7:N16)</f>
         <v>321400</v>
@@ -2476,10 +2471,8 @@
         <v>351800</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="14"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
@@ -2497,10 +2490,8 @@
         <v>501800</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="N19" s="9">
         <f>N17-E32</f>
         <v>-25400</v>
@@ -2529,8 +2520,7 @@
         <f>G20*H20</f>
         <v>2300</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1"/>
@@ -2556,8 +2546,7 @@
         <f t="shared" ref="I21:I27" si="1">G21*H21</f>
         <v>4000</v>
       </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
@@ -2584,8 +2573,6 @@
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
@@ -2612,8 +2599,6 @@
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1"/>
@@ -2638,8 +2623,6 @@
         <f t="shared" si="1"/>
         <v>40000</v>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
@@ -2666,8 +2649,6 @@
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1"/>
@@ -2692,8 +2673,6 @@
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1"/>
@@ -2718,8 +2697,16 @@
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="13"/>
+      <c r="K27" s="3">
+        <v>154000</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
+        <f>K27*L27</f>
+        <v>154000</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
@@ -2736,13 +2723,20 @@
         <f>E27+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>553800</v>
       </c>
-      <c r="G28" s="14"/>
       <c r="I28" s="12">
         <f>SUM(I20:I27)</f>
         <v>356300</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="13"/>
+      <c r="K28" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" ref="M28:M30" si="2">K28*L28</f>
+        <v>5000</v>
+      </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1"/>
@@ -2757,10 +2751,16 @@
         <f>E28+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>383800</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="13"/>
+      <c r="K29" s="3">
+        <v>900</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1"/>
@@ -2775,13 +2775,20 @@
         <f>E29+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>353800</v>
       </c>
-      <c r="H30" s="14"/>
       <c r="I30" s="9">
         <f>I28-E36</f>
         <v>-25500</v>
       </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="13"/>
+      <c r="K30" s="3">
+        <v>500</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1"/>
@@ -2796,10 +2803,11 @@
         <f>E30+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>331800</v>
       </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="13"/>
+      <c r="K31" s="3"/>
+      <c r="M31" s="3">
+        <f>SUM(M27:M30)</f>
+        <v>160400</v>
+      </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1"/>
@@ -2814,12 +2822,9 @@
         <f>E31+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>346800</v>
       </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="13"/>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>45975</v>
       </c>
@@ -2834,12 +2839,12 @@
         <f>E32+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>546800</v>
       </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="M33" s="3">
+        <f>M31-E40</f>
+        <v>-26400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1"/>
       <c r="B34" t="s">
         <v>40</v>
@@ -2853,7 +2858,7 @@
         <v>386800</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:13">
       <c r="A35" s="1"/>
       <c r="B35" t="s">
         <v>46</v>
@@ -2866,8 +2871,15 @@
         <f>E34+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>356800</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="H35">
+        <v>-25400</v>
+      </c>
+      <c r="I35">
+        <f>H35-H36</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
         <v>33</v>
@@ -2880,56 +2892,100 @@
         <f>E35+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
         <v>381800</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1"/>
+      <c r="H36">
+        <v>-25500</v>
+      </c>
+      <c r="I36">
+        <f>H36-H37</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1">
+        <v>45982</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="D37" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E37" s="3">
+        <f>E36+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
+        <v>231800</v>
+      </c>
+      <c r="H37">
+        <v>-26400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1"/>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="D38" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E38" s="3">
+        <f>E37+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
+        <v>201800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1"/>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="D39" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E39" s="3">
+        <f>E38+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
+        <v>131800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1"/>
-      <c r="C40" s="3"/>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="3">
+        <v>55000</v>
+      </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="E40" s="3">
+        <f>E39+Table1_34[[#This Row],[Masuk]]-Table1_34[[#This Row],[Keluar]]</f>
+        <v>186800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:13">
       <c r="A42" s="1"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:13">
       <c r="A43" s="1"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:13">
       <c r="A44" s="1"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:13">
       <c r="A45" s="1"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
